--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>9216735388.757105</v>
+        <v>12501241279.61598</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1349946806021719</v>
+        <v>0.09994599752564584</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1394482852225788</v>
+        <v>0.08067195908217556</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1944146081668993</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.572542199874965</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7478932294397097</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.38532238891923</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>7032016929.347963</v>
+        <v>5277423230.47644</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2067346345445728</v>
+        <v>0.2982996286727373</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4130614254242452</v>
+        <v>0.6244342907944059</v>
       </c>
       <c r="I3" t="n">
-        <v>2.187021305811122</v>
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9883524421666261</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5078287979838498</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.138657074137406</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8858369378719804</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.5780816833022</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8136634000.90428</v>
+        <v>8279797736.337936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1825317606561805</v>
+        <v>0.1581795886452733</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3207526914121654</v>
+        <v>0.240312259630561</v>
       </c>
       <c r="I4" t="n">
-        <v>2.234308252963795</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.448411666399391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7595534640631658</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.742657614863926</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10458175859.27179</v>
+        <v>6295790681.875133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1387567085815904</v>
+        <v>0.1709982660477136</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.153796500302305</v>
+        <v>0.2754531031508335</v>
       </c>
       <c r="I5" t="n">
-        <v>2.183080726881732</v>
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9865948829961546</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09715986238622602</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.498766515339114</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6707156530899165</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.91554654645922</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4966928127.99091</v>
+        <v>8537513216.069951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2462800142217477</v>
+        <v>0.1577000733030512</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5638858254876514</v>
+        <v>0.2389977266972814</v>
       </c>
       <c r="I6" t="n">
-        <v>1.840250360024854</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.524520301707449</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7664513682104893</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.804507062502337</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10699530186.41049</v>
+        <v>6435143942.587728</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.109921285281645</v>
+        <v>0.2491112388941168</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04381941940709093</v>
+        <v>0.4895903085364844</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1438747323407195</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.616208579777915</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2902550782499443</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.18889298522097</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>7011961161.763336</v>
+        <v>11960179041.91996</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2181591889501156</v>
+        <v>0.1007442610831163</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4566341911499538</v>
+        <v>0.08286030144233696</v>
       </c>
       <c r="I8" t="n">
-        <v>2.301298094763415</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.428745290247203</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7389940577929419</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.351135865611635</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>4683242905.928732</v>
+        <v>10146150868.11925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2483341529280263</v>
+        <v>0.131406434551386</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5717202233503252</v>
+        <v>0.1669169171143094</v>
       </c>
       <c r="I9" t="n">
-        <v>1.749617044648897</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.733960511561348</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7640044935950423</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.546129360339497</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8531054125.207832</v>
+        <v>4622005854.196497</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1697941014956005</v>
+        <v>0.295828612756636</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2721717998695946</v>
+        <v>0.6176603014882012</v>
       </c>
       <c r="I10" t="n">
-        <v>2.179140147952343</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.407699452991173</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7703288693875934</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.998877934760694</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>5881798308.521466</v>
+        <v>6027756492.53537</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1830340371311749</v>
+        <v>0.25160717953324</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3226683525747444</v>
+        <v>0.4964326259364543</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1381812640931786</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.140821598916787</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5902956903236474</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.66509220755616</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5929318767.883442</v>
+        <v>11933006205.47764</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2138162594440094</v>
+        <v>0.1066808747166863</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4400704422967798</v>
+        <v>0.09913480498026721</v>
       </c>
       <c r="I12" t="n">
-        <v>1.907240201824474</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.480173288875129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7525062119004365</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.569950949133602</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6624259729.41913</v>
+        <v>14496113888.96868</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1870354606564684</v>
+        <v>0.09884071972491493</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3379296121081895</v>
+        <v>0.07764197455081337</v>
       </c>
       <c r="I13" t="n">
-        <v>0.156841691806958</v>
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2707318538236774</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.212087285127647</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5994465747513749</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.776844209899849</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>6540954391.160361</v>
+        <v>10843205048.38601</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2118432918401966</v>
+        <v>0.1485653773779537</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4325456275745849</v>
+        <v>0.2139560698998323</v>
       </c>
       <c r="I14" t="n">
-        <v>2.084566253646997</v>
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9870328751372047</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3747252698387775</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.776331922791666</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8648357556297713</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.52038318980376</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10455155297.49028</v>
+        <v>11746295706.20167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.14055054642304</v>
+        <v>0.08362391638764825</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1606381217118432</v>
+        <v>0.03592696073418879</v>
       </c>
       <c r="I15" t="n">
-        <v>2.210664779387458</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.988554972522125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6625634976802062</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.262714981081998</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9609041087.390999</v>
+        <v>6356654878.44526</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1627400503107422</v>
+        <v>0.2097438881763072</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2452679479744287</v>
+        <v>0.381669509225404</v>
       </c>
       <c r="I16" t="n">
-        <v>2.352525620845477</v>
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9815676965925817</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4751843653582688</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.871569065449698</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.879099200902952</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.71041495260934</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8444637333.680722</v>
+        <v>14735818010.43096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1374114392541031</v>
+        <v>0.09741065741880861</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1486657001709542</v>
+        <v>0.07372163283805949</v>
       </c>
       <c r="I17" t="n">
-        <v>0.161393627687502</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.72944620382108</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.782626250264149</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.9230788014619</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5640488654.428423</v>
+        <v>9765397494.908609</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2164060269923001</v>
+        <v>0.1123891178594847</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4499477058346004</v>
+        <v>0.1147832586201537</v>
       </c>
       <c r="I18" t="n">
-        <v>1.836309781095464</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.480207475169486</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7164356889205717</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.848506303241949</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>6319590847.394554</v>
+        <v>6621190806.551222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2080726128879248</v>
+        <v>0.1978035429373437</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.418164418051482</v>
+        <v>0.3489365064009029</v>
       </c>
       <c r="I19" t="n">
-        <v>1.978170622553483</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.820647120339352</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7595534640631658</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.370422160923965</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10325770496.43707</v>
+        <v>5798785110.783946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1483998845925094</v>
+        <v>0.2552181744496345</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1905751644199785</v>
+        <v>0.5063317288880084</v>
       </c>
       <c r="I20" t="n">
-        <v>2.305238673692804</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.065301850976939</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7904293066557436</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.743284282137934</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7568117432.672381</v>
+        <v>11454793609.70556</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1868986062364172</v>
+        <v>0.08620932542715483</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3374076551572446</v>
+        <v>0.04301454486169815</v>
       </c>
       <c r="I21" t="n">
-        <v>2.12791262187028</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.269976326166832</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4505765519326141</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.741554712485451</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>7323301457.560025</v>
+        <v>9944771212.159958</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1960080065416636</v>
+        <v>0.1590897896238653</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3721505213831366</v>
+        <v>0.2428074648031799</v>
       </c>
       <c r="I22" t="n">
-        <v>2.159437253305396</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.976514815120834</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5741949433983929</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.507384052847026</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5564439987.950273</v>
+        <v>12045824432.33055</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.225012476136204</v>
+        <v>0.1169892378821057</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4827723376728109</v>
+        <v>0.127393927631812</v>
       </c>
       <c r="I23" t="n">
-        <v>1.883596728248137</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.791314835587773</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7779500785477313</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.767686735366855</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>3813303294.28029</v>
+        <v>10423054987.62783</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3606269011076778</v>
+        <v>0.1429938642527689</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0.1986824449573721</v>
       </c>
       <c r="I24" t="n">
-        <v>2.068803937929439</v>
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9879874339717538</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3717620220141254</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.144898517154018</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8783627156304149</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.42235579545428</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7326402009.034763</v>
+        <v>5517842210.63595</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1805513741081586</v>
+        <v>0.2340333812936572</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3131995811515641</v>
+        <v>0.4482561975417078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1668839543566975</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.652241111023573</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.756048997076976</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.468738830515948</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>11123459419.31964</v>
+        <v>13164546721.5826</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0984320595531933</v>
+        <v>0.1175930719636579</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1290492652540846</v>
       </c>
       <c r="I26" t="n">
-        <v>1.647161992484773</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.476304589310067</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.3784133886174202</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-10.04457236165847</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5753146216.216515</v>
+        <v>6268486977.66165</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2545110023229931</v>
+        <v>0.2452875686715661</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5952784648410649</v>
+        <v>0.4791081821247378</v>
       </c>
       <c r="I27" t="n">
-        <v>2.202783621528679</v>
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.987223186928609</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3199537066010772</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.543409417652343</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8093694697397407</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.64397997714247</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8285788106.739244</v>
+        <v>11063557459.53688</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1390974021001803</v>
+        <v>0.1368463467141767</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1550958909255911</v>
+        <v>0.1818297740398035</v>
       </c>
       <c r="I28" t="n">
-        <v>1.73385472893134</v>
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9841054870771762</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3841058721137522</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.157242367253645</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8830502245173439</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.50376212309324</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>9351620899.586592</v>
+        <v>5468758137.401335</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1459321549337323</v>
+        <v>0.2960055974918685</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.181163348214341</v>
+        <v>0.6181454835932676</v>
       </c>
       <c r="I29" t="n">
-        <v>2.053041622211882</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.812326637157689</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5453911625112536</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.095496613067384</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10221993671.85014</v>
+        <v>10143578203.62832</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1506752370862336</v>
+        <v>0.1231763589650323</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1992532622812265</v>
+        <v>0.1443551668447369</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1585782341068646</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.408326334551807</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7478932294397097</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.549538254242387</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7179321212.458301</v>
+        <v>9363230335.259668</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2050468472486598</v>
+        <v>0.1049073038715072</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.406624276295351</v>
+        <v>0.09427277642725192</v>
       </c>
       <c r="I31" t="n">
-        <v>2.214605358316847</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.425705440788176</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5973292167991332</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.520878895194487</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6889312200.966775</v>
+        <v>5064334762.552585</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1703343796548115</v>
+        <v>0.2053374981625146</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2742323978432537</v>
+        <v>0.3695899274477629</v>
       </c>
       <c r="I32" t="n">
-        <v>1.765379360366455</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.088315033788386</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4084669399753077</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.081023765717768</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9704306585.155046</v>
+        <v>5726084003.424251</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1130966339912338</v>
+        <v>0.2374159039907603</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05593006464619236</v>
+        <v>0.4575289717188659</v>
       </c>
       <c r="I33" t="n">
-        <v>1.651102571414162</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.517502417908034</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7688801503606502</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.86010058930497</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>5743926586.662991</v>
+        <v>8623509486.779745</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.244886909464696</v>
+        <v>0.128789950507115</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5585725830577379</v>
+        <v>0.1597441446443888</v>
       </c>
       <c r="I34" t="n">
-        <v>2.116090885082112</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.719185600520907</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5640021627606161</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.560857654691414</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>8760389482.486481</v>
+        <v>3676666273.989706</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1417278150112107</v>
+        <v>0.4352984934537687</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1651281741522002</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1675154661476193</v>
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9866080776744107</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.381363207431577</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.012191483585133</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8919216201896757</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.82624092020838</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6302722481.940874</v>
+        <v>9577554334.352623</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2452019907949515</v>
+        <v>0.1266270623649743</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5597742898815161</v>
+        <v>0.1538148501182352</v>
       </c>
       <c r="I36" t="n">
-        <v>2.324941568339751</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.464152455498972</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7405826935728373</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.347501415957774</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10337487167.70691</v>
+        <v>3750229059.108196</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1163048611809496</v>
+        <v>0.2640183851157755</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06816610701336903</v>
+        <v>0.5304564350691175</v>
       </c>
       <c r="I37" t="n">
-        <v>1.808725728589738</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.658346308667541</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5129494947812602</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.600643586957663</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>9189049928.597904</v>
+        <v>3942955133.973004</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1165877341318862</v>
+        <v>0.319538657476549</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06924497244511994</v>
+        <v>0.6826585025664585</v>
       </c>
       <c r="I38" t="n">
-        <v>1.611696782120268</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.504672734690207</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7499516201022487</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.494359667354768</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5518455057.522289</v>
+        <v>4641290860.405923</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2112237098698691</v>
+        <v>0.3233821182817945</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4301825682304187</v>
+        <v>0.6931948824513072</v>
       </c>
       <c r="I39" t="n">
-        <v>0.180741789053096</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.199015066108291</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7940399458199624</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.681783850290957</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>8401706290.390703</v>
+        <v>5356612689.480747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1658610086850819</v>
+        <v>0.2596596339196645</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2571711507828304</v>
+        <v>0.5185074493104792</v>
       </c>
       <c r="I40" t="n">
-        <v>2.096387990435165</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.720367362428869</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7746373153487147</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.772378944545425</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9168777341.272108</v>
+        <v>3865633540.08236</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1397003834125485</v>
+        <v>0.3035690548088006</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1573956360647146</v>
+        <v>0.6388797810330312</v>
       </c>
       <c r="I41" t="n">
-        <v>1.926943096471421</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.569997603243296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7325584285798639</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.081170968353982</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4566965106.176881</v>
+        <v>10995035586.23009</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2667014793593708</v>
+        <v>0.102917036613975</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6417724269804556</v>
+        <v>0.08881670104094533</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1848215027821006</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.521379679720422</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7237668599245609</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.953957518770796</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6331775452.589036</v>
+        <v>8012821787.23566</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2014668617912524</v>
+        <v>0.123568131962858</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3929703636699822</v>
+        <v>0.145429164822831</v>
       </c>
       <c r="I43" t="n">
-        <v>1.919061938612642</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.930829165596503</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6341948708972976</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.753068252349451</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7598412830.291365</v>
+        <v>6872323435.638555</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1982189285630386</v>
+        <v>0.2244976861827002</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3805828841568168</v>
+        <v>0.4221152502948896</v>
       </c>
       <c r="I44" t="n">
-        <v>2.26583288439891</v>
+        <v>18</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9883871660237514</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.336933124468451</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.297836745337764</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7302085500198331</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.3063342550589</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>9702906659.844421</v>
+        <v>11173593144.22461</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1614356681882289</v>
+        <v>0.08814448738981236</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2402930899078856</v>
+        <v>0.0483195557907653</v>
       </c>
       <c r="I45" t="n">
-        <v>2.356466199774866</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.393800946263935</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.598200013798956</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.570199329715185</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7157334679.307823</v>
+        <v>7271052666.138744</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1500488587050201</v>
+        <v>0.213987950774432</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1968642817143325</v>
+        <v>0.393304090155146</v>
       </c>
       <c r="I46" t="n">
-        <v>1.615637361049657</v>
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9852185573426305</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3409878540891268</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.114124349229019</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8943765644280278</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.77340693933154</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7705514350.725616</v>
+        <v>12432634770.71659</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1614701100235878</v>
+        <v>0.08827770060334046</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2404244496064776</v>
+        <v>0.04868474359793585</v>
       </c>
       <c r="I47" t="n">
-        <v>1.871774991459969</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.567713906991338</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7164356889205717</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.760999871420097</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>8093599654.094341</v>
+        <v>14978519202.05472</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1893277670615728</v>
+        <v>0.1019529600623348</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3466723714680378</v>
+        <v>0.08617380254376476</v>
       </c>
       <c r="I48" t="n">
-        <v>2.305238673692804</v>
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9853967324217282</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2313784852476292</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.862206761401185</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8720134337953486</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.57806191450579</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>7247163400.200775</v>
+        <v>13950587738.47243</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1590320979885827</v>
+        <v>0.08092541412334928</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2311259751569012</v>
+        <v>0.028529345299169</v>
       </c>
       <c r="I49" t="n">
-        <v>1.73385472893134</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.658620894182814</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7232090565961266</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.805560237739718</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10058574110.8719</v>
+        <v>7244552782.786641</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1377588209547812</v>
+        <v>0.1883763195490258</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1499905992369257</v>
+        <v>0.3230929211760755</v>
       </c>
       <c r="I50" t="n">
-        <v>2.084566253646997</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.903370796806888</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.4770534726049961</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6.637698655293034</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6924521335.960514</v>
+        <v>11655525736.08321</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1804383248140698</v>
+        <v>0.1155131471960904</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3127684159409196</v>
+        <v>0.1233474047191501</v>
       </c>
       <c r="I51" t="n">
-        <v>1.879656149318748</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.426421716349973</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7664513682104893</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.902605647859813</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>4675500063.620426</v>
+        <v>6323954417.572035</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2997270090752304</v>
+        <v>0.1772781468640669</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7677303959475791</v>
+        <v>0.292668631880141</v>
       </c>
       <c r="I52" t="n">
-        <v>2.108209727223334</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.415834150909469</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6967567252176495</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.519300353443522</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7107532813.743867</v>
+        <v>5500767726.743817</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.167684410502526</v>
+        <v>0.2514263442311697</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2641255279423258</v>
+        <v>0.49593688797118</v>
       </c>
       <c r="I53" t="n">
-        <v>1.792963412872181</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.350884467169342</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6189322971401675</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.027761475634009</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>4496941700.656814</v>
+        <v>8257559324.629872</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3221128416649102</v>
+        <v>0.1928643873317113</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.85310901154871</v>
+        <v>0.3353964126134765</v>
       </c>
       <c r="I54" t="n">
-        <v>2.179140147952343</v>
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9877366758439644</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3133048711318974</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.714911524084786</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8600367694367536</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.48582386465029</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>6005005119.249619</v>
+        <v>7629966301.529475</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2473260389469225</v>
+        <v>0.1733679937400035</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5678753194036</v>
+        <v>0.2819494231225464</v>
       </c>
       <c r="I55" t="n">
-        <v>2.234308252963795</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.241833521030498</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5602012404561729</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.96219128809296</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>10071362770.73847</v>
+        <v>8941625301.039875</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.152408623831892</v>
+        <v>0.1400269389340649</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2058643257765323</v>
+        <v>0.1905489803972089</v>
       </c>
       <c r="I56" t="n">
-        <v>2.309179252622193</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.590021819552407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7484090662725666</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.378159505898926</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>4607999956.107729</v>
+        <v>11362562667.71258</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2370411546016221</v>
+        <v>0.08667856616523903</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5286492069281448</v>
+        <v>0.0443009112185904</v>
       </c>
       <c r="I57" t="n">
-        <v>1.643221413555383</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.126457572103483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6632475672786365</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.138493773469248</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>10381598900.95129</v>
+        <v>4766950136.457121</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1097552179458206</v>
+        <v>0.3395846345485601</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04318604563497598</v>
+        <v>0.737612108260944</v>
       </c>
       <c r="I58" t="n">
-        <v>1.714151834284393</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9872150435966673</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.865922746160906</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8670900498641526</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.47587825112215</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>5255161885.505105</v>
+        <v>9646357814.934498</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2591895035159478</v>
+        <v>0.1637397451248003</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6131220698685975</v>
+        <v>0.2555547517115374</v>
       </c>
       <c r="I59" t="n">
-        <v>2.049101043282493</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.866656813538972</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5286195924889957</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.705735036240942</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>7731083180.172738</v>
+        <v>4027155689.866469</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1985443054003855</v>
+        <v>0.252367526429975</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3818238576077736</v>
+        <v>0.4985170243872805</v>
       </c>
       <c r="I60" t="n">
-        <v>2.309179252622193</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.360803237214514</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6982091369284141</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.603379501353769</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4231246075.161936</v>
+        <v>4996914932.685595</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2500997439529678</v>
+        <v>0.2007691512692643</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.578454112600296</v>
+        <v>0.3570663606021328</v>
       </c>
       <c r="I61" t="n">
-        <v>1.591993887473321</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.399150817621781</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6951633261795179</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.504115705968578</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4660674458.341785</v>
+        <v>7015365323.169069</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3231612212915361</v>
+        <v>0.2173065706165307</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8571074869588683</v>
+        <v>0.4024016824350064</v>
       </c>
       <c r="I62" t="n">
-        <v>2.26583288439891</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.032138260296531</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7980566509542233</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.928994758787935</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>10663483946.15786</v>
+        <v>5464406330.709681</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1378046609738147</v>
+        <v>0.2856955258298384</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1501654311243942</v>
+        <v>0.5898816773062613</v>
       </c>
       <c r="I63" t="n">
-        <v>2.210664779387458</v>
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9864770828176033</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5424385544942676</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.31557504963416</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8962226111780649</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.60887717392714</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>11528861308.64773</v>
+        <v>12449470081.41314</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1185998810632218</v>
+        <v>0.1001512218469039</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07691921545999433</v>
+        <v>0.08123455657437163</v>
       </c>
       <c r="I64" t="n">
-        <v>2.056982201141271</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.704170430956271</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7473765611080562</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.243360791204852</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>5304447508.428766</v>
+        <v>4547531799.105103</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2276464774288408</v>
+        <v>0.2206089840201716</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.492818306834601</v>
+        <v>0.411454846736848</v>
       </c>
       <c r="I65" t="n">
-        <v>1.816606886448517</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.854737143304434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6379613121216852</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.904489099129269</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7633651732.825617</v>
+        <v>4766420121.691639</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1612744913035612</v>
+        <v>0.2555411228768724</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2396783681089667</v>
+        <v>0.507217052684715</v>
       </c>
       <c r="I66" t="n">
-        <v>1.852072096813022</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.879933421572034</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7416373826375491</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.952814231178948</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4526611006.29813</v>
+        <v>12141759319.62148</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2656070973024128</v>
+        <v>0.08305758032695373</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6375985002530276</v>
+        <v>0.03437441937099284</v>
       </c>
       <c r="I67" t="n">
-        <v>1.808725728589738</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.330690782608453</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.463604032937791</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5.941389876147365</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>10321707693.06986</v>
+        <v>5230321151.48278</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1131835908106929</v>
+        <v>0.2569148300996875</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0562617142657791</v>
+        <v>0.5109829037974377</v>
       </c>
       <c r="I68" t="n">
-        <v>1.757498202507676</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.940903077024984</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4649045887345193</v>
+      </c>
+      <c r="N68" t="n">
+        <v>6.357188697665402</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>11041264278.02034</v>
+        <v>8937175692.181435</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1290566120074329</v>
+        <v>0.1377519411503818</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1168007435717448</v>
+        <v>0.1843123509372808</v>
       </c>
       <c r="I69" t="n">
-        <v>2.143674937587838</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.400551127554854</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7442589055016658</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.484626982478463</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>9143677213.788742</v>
+        <v>4912763206.704243</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1452403337245237</v>
+        <v>0.2148717789938354</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.178524771478403</v>
+        <v>0.3957269976191362</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1839248995647265</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.385304703762301</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7071653578406208</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.758002453050116</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5352581565.641901</v>
+        <v>6070702237.886667</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2040670686853903</v>
+        <v>0.2472383607670563</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4028874424298921</v>
+        <v>0.4844560411601135</v>
       </c>
       <c r="I71" t="n">
-        <v>1.643221413555383</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.197516469790378</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7940399458199624</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.683282446608871</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>5823329810.414023</v>
+        <v>4401090588.647677</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2100611110523774</v>
+        <v>0.3166295834933462</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4257484656729504</v>
+        <v>0.6746836303996028</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1439354066814037</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.6381600958827</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7751125926156155</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.864091756429609</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7727963518.672899</v>
+        <v>12175410165.76196</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1725253369504724</v>
+        <v>0.1228436389113136</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2825886160002213</v>
+        <v>0.143443055323656</v>
       </c>
       <c r="I73" t="n">
-        <v>2.005754675059209</v>
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.987835768634583</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5284551450830335</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.159283421236589</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8644085706774418</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.12888799231225</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8983986847.899002</v>
+        <v>12401565684.73517</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1320776276823574</v>
+        <v>0.08195121050328116</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1283227691654357</v>
+        <v>0.03134144119168177</v>
       </c>
       <c r="I74" t="n">
-        <v>1.785082255013402</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.972449343612396</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6416765709414776</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.861082075217155</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4185765451.198319</v>
+        <v>14709313823.82503</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3554459840969021</v>
+        <v>0.07051847913666069</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9802402023622609</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2.238248831893184</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.492103165331359</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7030189063916208</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.568274962501055</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4378212450.387369</v>
+        <v>11544595056.91817</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2656356157173462</v>
+        <v>0.1368165935845</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6377072682774646</v>
+        <v>0.1817482094570167</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1841291744035224</v>
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9856522106724223</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.268590520400608</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.776986860442495</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8710500598572232</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.64401433670197</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7915901718.93355</v>
+        <v>4295544523.320168</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1720691903920585</v>
+        <v>0.279894668411143</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2808488923820543</v>
+        <v>0.5739793329041017</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2223069276210767</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.456848665920489</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7384627376234364</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.312406086548238</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10604673453.22902</v>
+        <v>7309122382.992862</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.118067607222621</v>
+        <v>0.1641347014234515</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07488914561786837</v>
+        <v>0.2566374763213016</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1231212223858666</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.382696738316573</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7379305239616776</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.375913740916978</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6642373579.591824</v>
+        <v>5479088750.427358</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1675968291546181</v>
+        <v>0.2548115085544297</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2637914963977362</v>
+        <v>0.505216903844849</v>
       </c>
       <c r="I79" t="n">
-        <v>1.674746044990499</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.684582811356034</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7755871908581535</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.827161005807037</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6546078462.628796</v>
+        <v>10550631929.30683</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1848676557894512</v>
+        <v>0.1395269202701412</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3296616963316437</v>
+        <v>0.189178240103611</v>
       </c>
       <c r="I80" t="n">
-        <v>1.820547465377907</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.841365372036623</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7890653427106797</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.939941482176971</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5825208014.738341</v>
+        <v>10579285128.08082</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1906578026381239</v>
+        <v>0.09581970026588128</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3517450707197301</v>
+        <v>0.06936021749049527</v>
       </c>
       <c r="I81" t="n">
-        <v>1.670805466061109</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.351020880755712</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4667307840989452</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.983594801223191</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8561228026.907508</v>
+        <v>13285976702.5137</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1340103097819748</v>
+        <v>0.09778862849836162</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1356939366840605</v>
+        <v>0.07475779453748975</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1653357410350949</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.802532192238689</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.3343873217872976</v>
+      </c>
+      <c r="N82" t="n">
+        <v>3.885214243507264</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>4797091118.254897</v>
+        <v>7149673810.980632</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2386182379659308</v>
+        <v>0.2080953004758038</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5346641359593894</v>
+        <v>0.3771501067477502</v>
       </c>
       <c r="I83" t="n">
-        <v>1.722032992143171</v>
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9878987082541237</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4200476995459212</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.928444039587808</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8461985378314983</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.99552671704216</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4063498873.698058</v>
+        <v>10112565007.86824</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3390671888500144</v>
+        <v>0.1567090989048747</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9177721722904939</v>
+        <v>0.2362810910284339</v>
       </c>
       <c r="I84" t="n">
-        <v>2.072744516858829</v>
+        <v>17</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9889255308332541</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3877046895657968</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.405457869045255</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7685652527209673</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.96584718537409</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10203176935.8378</v>
+        <v>5562015644.993294</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1239971998874402</v>
+        <v>0.2260524385852417</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09750436043164654</v>
+        <v>0.42637741472693</v>
       </c>
       <c r="I85" t="n">
-        <v>1.903299622895084</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.409605476931528</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7494382583914143</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.579159690896759</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9585932852.292158</v>
+        <v>5691630888.87637</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1404523149437732</v>
+        <v>0.2710683001273437</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1602634710181665</v>
+        <v>0.5497829187986776</v>
       </c>
       <c r="I86" t="n">
-        <v>2.025457569706156</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.718449160805171</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.3598124232668234</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4.477799304531297</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10957518467.34858</v>
+        <v>8313800502.068478</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.09920556860015368</v>
+        <v>0.1871487846758997</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.002950130682871002</v>
+        <v>0.3197277837646301</v>
       </c>
       <c r="I87" t="n">
-        <v>1.635340255696605</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.905236355950739</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5644380355392208</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.383524354833678</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8533269512.422461</v>
+        <v>7486356532.469601</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1378259655678122</v>
+        <v>0.1546507135986047</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.150246685941885</v>
+        <v>0.2306382783043777</v>
       </c>
       <c r="I88" t="n">
-        <v>1.769319939295844</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.567427113926838</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7292905308282674</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.01838350263851</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5816389534.60628</v>
+        <v>3838137601.046019</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2292263099070876</v>
+        <v>0.394464080596637</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4988437208697525</v>
+        <v>0.888057428437859</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2044202642566645</v>
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3007701503922216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.242125581696192</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.6249726670076108</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.257327758456023</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6578174394.053561</v>
+        <v>12667189150.4747</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1815764934842307</v>
+        <v>0.089124515043473</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3171093429531103</v>
+        <v>0.05100618229220706</v>
       </c>
       <c r="I90" t="n">
-        <v>1.79690399180157</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.835070330788485</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7232090565961266</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.629110801134047</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8104158802.652205</v>
+        <v>11226754425.4446</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1554666709625274</v>
+        <v>0.1059258103396971</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2175275877709524</v>
+        <v>0.09706488791421651</v>
       </c>
       <c r="I91" t="n">
-        <v>1.895418465036306</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.357197212276045</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7357926608770406</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.358656005264768</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10940376390.11474</v>
+        <v>11615890590.09121</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1314438423982704</v>
+        <v>0.08546471768999372</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1259055389852786</v>
+        <v>0.04097329340071815</v>
       </c>
       <c r="I92" t="n">
-        <v>2.163377832234785</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.525248971381076</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5141904460828819</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6.758559950276562</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>11281528721.97713</v>
+        <v>12185809310.67307</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1116804841834585</v>
+        <v>0.08512183422167031</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05052892937068785</v>
+        <v>0.04003332011581846</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1823373476503627</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.740779377526843</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7030189063916208</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.319598750305571</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8559267381.788031</v>
+        <v>9932868005.984095</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1389374822581574</v>
+        <v>0.135019178669447</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1544859634339794</v>
+        <v>0.1768208152892801</v>
       </c>
       <c r="I94" t="n">
-        <v>1.789022833942791</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.800582897462359</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7654748077737277</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.508913258012194</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9022584840.095469</v>
+        <v>5614684320.368133</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1692535339998911</v>
+        <v>0.2351285459114541</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.270110098378808</v>
+        <v>0.4512584580132609</v>
       </c>
       <c r="I95" t="n">
-        <v>2.297357515834025</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.787165419305484</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.761539195680673</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.443618494307975</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>7909288882.96634</v>
+        <v>4842075463.387021</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1970514761897884</v>
+        <v>0.3126773697452776</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3761302703436362</v>
+        <v>0.6638491175618657</v>
       </c>
       <c r="I96" t="n">
-        <v>2.344644462986698</v>
+        <v>12</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9875714208142118</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2422095563303882</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.643816209283277</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8371815469564837</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.0998147298464</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>11109018837.20324</v>
+        <v>5864764753.026368</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.141237910655574</v>
+        <v>0.2590464006618561</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1632596997278666</v>
+        <v>0.5168263449907802</v>
       </c>
       <c r="I97" t="n">
-        <v>2.360406778704256</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.407095645462347</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.5331425563132922</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-13.06994677172819</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9803572426.616112</v>
+        <v>6410024495.664121</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1090124164430625</v>
+        <v>0.1728545609692251</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04035303222268219</v>
+        <v>0.2805419096880739</v>
       </c>
       <c r="I98" t="n">
-        <v>0.07964558196386115</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.446455055060145</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7187100508972274</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.927745962884403</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11540329807.57964</v>
+        <v>6225338352.348438</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1209787669225037</v>
+        <v>0.1754580342750282</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08599218518425805</v>
+        <v>0.2876790148024453</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1119243314054093</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.513561198023853</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7152921623621318</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.792282049218782</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>9297944712.591324</v>
+        <v>11797877200.80238</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1253641085240591</v>
+        <v>0.1114551166807</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1027176919698066</v>
+        <v>0.1122228080962039</v>
       </c>
       <c r="I100" t="n">
-        <v>1.753557623578287</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.385789307219229</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.597179210908353</v>
+      </c>
+      <c r="N100" t="n">
+        <v>8.557794910947832</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>8739302252.729376</v>
+        <v>5939933466.572156</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1945217204804968</v>
+        <v>0.2663517308575196</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3664818894132819</v>
+        <v>0.5368530183526405</v>
       </c>
       <c r="I101" t="n">
-        <v>2.557435725173726</v>
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.988326851875074</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3317994932812816</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.962627769434838</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8878831559201228</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.79503534896762</v>
       </c>
     </row>
   </sheetData>
